--- a/PSUControl/2. Program/PROJECT BASE LINE.xlsx
+++ b/PSUControl/2. Program/PROJECT BASE LINE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALBERTO IBARRONDO\Downloads\PSUControlLast\PSUControl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="10485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Program" sheetId="2" r:id="rId3"/>
     <sheet name="Tests" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>Program</t>
   </si>
@@ -494,15 +489,24 @@
   <si>
     <t>refactorización completa del sistema, arreglos varios (relés, defaultValues)</t>
   </si>
+  <si>
+    <t>Creada una batería de tests HW+SW para comprobar el funcionamiento de las SF. SF 2 operativa</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>Areglo de errores de navegación, de ganancia del AGC y del envío libre de mensajes I2C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,10 +1006,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,7 +1040,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1213,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1228,7 +1230,7 @@
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25">
       <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1241,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
@@ -1250,39 +1252,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="35" t="str">
         <f ca="1">Program!A4</f>
-        <v>7.0</v>
+        <v>7.12</v>
       </c>
       <c r="C3" s="36">
         <f ca="1">Program!B4</f>
-        <v>42183</v>
+        <v>42268</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="str">
         <f ca="1">Tests!A4</f>
-        <v>2.1</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="36">
         <f ca="1">Tests!B4</f>
-        <v>42163</v>
+        <v>42268</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="90">
       <c r="A7" s="34" t="s">
         <v>63</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="34" t="s">
         <v>62</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="75">
       <c r="A9" s="34" t="s">
         <v>61</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
@@ -1393,14 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1409,7 +1411,7 @@
     <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="44" t="s">
         <v>59</v>
       </c>
@@ -1417,7 +1419,7 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" t="str">
         <f ca="1">E3&amp;"_V"&amp;B3</f>
         <v>1. User Requirements_V1.1</v>
@@ -1462,7 +1464,7 @@
         <v>$D$15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A8" ca="1" si="0">E4&amp;"_V"&amp;B4</f>
         <v>2.1. System Requirements Summary_V1.1</v>
@@ -1496,7 +1498,7 @@
         <v>$D$22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>2.2. System Requirements_V1.1</v>
@@ -1530,7 +1532,7 @@
         <v>$D$29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3.1. Test Cases Summary_V1.1</v>
@@ -1564,7 +1566,7 @@
         <v>$D$36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>3.2. Test Cases_V1.3</v>
@@ -1598,7 +1600,7 @@
         <v>$D$43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>4. Traceability Matrix UR - SR - TC_V1.2</v>
@@ -1632,12 +1634,12 @@
         <v>$D$52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75">
       <c r="E9" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="43" t="str">
         <f t="shared" ref="A12" si="4">$E$3</f>
         <v>1. User Requirements</v>
@@ -1646,7 +1648,7 @@
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
@@ -1657,11 +1659,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="23"/>
       <c r="C14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="23" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="43" t="str">
         <f t="shared" ref="A19" si="5">$E$4</f>
         <v>2.1. System Requirements Summary</v>
@@ -1692,7 +1694,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
@@ -1703,11 +1705,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" s="23"/>
       <c r="C21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" s="23" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="43" t="str">
         <f t="shared" ref="A26" si="6">$E$5</f>
         <v>2.2. System Requirements</v>
@@ -1738,7 +1740,7 @@
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="B27" s="22" t="s">
         <v>11</v>
       </c>
@@ -1749,11 +1751,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" s="23"/>
       <c r="C28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" s="23" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" s="23" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="43" t="str">
         <f t="shared" ref="A33" si="7">$E$6</f>
         <v>3.1. Test Cases Summary</v>
@@ -1784,7 +1786,7 @@
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34" s="22" t="s">
         <v>11</v>
       </c>
@@ -1795,11 +1797,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" s="23"/>
       <c r="C35" s="29"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="23" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37" s="23" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="43" t="str">
         <f t="shared" ref="A40" si="8">$E$7</f>
         <v>3.2. Test Cases</v>
@@ -1830,7 +1832,7 @@
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" s="22" t="s">
         <v>11</v>
       </c>
@@ -1841,11 +1843,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" s="23"/>
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="B43" s="23" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="B44" s="23" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" s="23" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="43" t="str">
         <f t="shared" ref="A49" si="9">$E$8</f>
         <v>4. Traceability Matrix UR - SR - TC</v>
@@ -1898,7 +1900,7 @@
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="B50" s="22" t="s">
         <v>11</v>
       </c>
@@ -1909,11 +1911,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="B51" s="23"/>
       <c r="C51" s="29"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="B52" s="23" t="s">
         <v>3</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="B53" s="23" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" s="23" t="s">
         <v>9</v>
       </c>
@@ -1961,46 +1963,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="10"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30.75" thickBot="1">
       <c r="A4" s="14" t="str">
         <f ca="1">INDIRECT(E4, TRUE)</f>
-        <v>7.0</v>
+        <v>7.12</v>
       </c>
       <c r="B4" s="27">
         <f ca="1">INDIRECT(F4, TRUE)</f>
-        <v>42183</v>
+        <v>42268</v>
       </c>
       <c r="C4" s="15" t="str">
         <f ca="1">INDIRECT(G4, TRUE)</f>
-        <v>refactorización completa del sistema, arreglos varios (relés, defaultValues)</v>
+        <v>Areglo de errores de navegación, de ganancia del AGC y del envío libre de mensajes I2C</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="25" t="str">
@@ -2016,10 +2018,10 @@
         <v>C8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2030,588 +2032,599 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>42268</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B9" s="12">
         <v>42183</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B11" s="12">
         <v>42181</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <v>42180</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B13" s="12">
         <v>42178</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:7" ht="60">
+      <c r="A14" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B13" s="12">
-        <v>42177</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>132</v>
       </c>
       <c r="B14" s="12">
         <v>42177</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="12">
+        <v>42177</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="39"/>
+    </row>
+    <row r="17" spans="1:3" ht="60">
+      <c r="A17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B17" s="12">
         <v>42163</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B18" s="12">
         <v>42158</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B19" s="12">
         <v>42157</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C19" s="40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B20" s="12">
         <v>42150</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>42146</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B22" s="12">
         <v>42144</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B23" s="12">
         <v>42143</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B24" s="12">
         <v>42138</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:3" ht="45">
+      <c r="A25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B25" s="12">
         <v>42137</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:3" ht="75">
+      <c r="A26" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B26" s="12">
         <v>42132</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:3" ht="60">
+      <c r="A27" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B27" s="12">
         <v>42131</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="45">
+      <c r="A29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B29" s="12">
         <v>42118</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:3" ht="60">
+      <c r="A30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B30" s="12">
         <v>42114</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B31" s="12">
         <v>42111</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B32" s="12">
         <v>42110</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:3" ht="45">
+      <c r="A33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B33" s="12">
         <v>42109</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:3" ht="45">
+      <c r="A34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B34" s="12">
         <v>42103</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B35" s="12">
         <v>42102</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:3" ht="30">
+      <c r="A36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B36" s="12">
         <v>42090</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B38" s="12">
         <v>42081</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:3" ht="45">
+      <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B39" s="12">
         <v>42076</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:3" ht="45">
+      <c r="A40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B40" s="12">
         <v>42074</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B41" s="12">
         <v>42073</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B42" s="12">
         <v>42067</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B43" s="12">
         <v>42066</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B44" s="12">
         <v>42061</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="45">
+      <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B46" s="12">
         <v>42060</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:3" ht="45">
+      <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B47" s="12">
         <v>42059</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B48" s="12">
         <v>42055</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B48" s="12">
-        <v>42053</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="B49" s="12">
         <v>42053</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="12">
+        <v>42053</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="51" spans="1:3" ht="45">
+      <c r="A51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B51" s="12">
         <v>42052</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B52" s="12">
         <v>42048</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="53" spans="1:3" ht="30">
+      <c r="A53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B53" s="12">
         <v>42047</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B54" s="12">
         <v>42046</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" ht="45">
+      <c r="A56" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B55" s="12">
-        <v>42046</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="B56" s="12">
         <v>42046</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="12">
+        <v>42046</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B58" s="12">
         <v>42045</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B58" s="12">
-        <v>42044</v>
-      </c>
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B59" s="12">
         <v>42044</v>
       </c>
       <c r="C59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="12">
+        <v>42044</v>
+      </c>
+      <c r="C60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B61" s="12">
         <v>42041</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B62" s="12">
         <v>42039</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B63" s="12">
         <v>42037</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B64" s="12">
         <v>42033</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2626,46 +2639,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.5">
       <c r="A1" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30.75" thickBot="1">
       <c r="A4" s="14" t="str">
         <f ca="1">INDIRECT(E4, TRUE)</f>
-        <v>2.1</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="27">
         <f ca="1">INDIRECT(F4, TRUE)</f>
-        <v>42163</v>
+        <v>42268</v>
       </c>
       <c r="C4" s="15" t="str">
         <f ca="1">INDIRECT(G4, TRUE)</f>
-        <v>Pasados todos los tests de bibliotecas Controller.h. Incluidos todos los resultados en ficheros word separados</v>
+        <v>Creada una batería de tests HW+SW para comprobar el funcionamiento de las SF. SF 2 operativa</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="25" t="str">
@@ -2681,12 +2694,12 @@
         <v>C8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
@@ -2697,101 +2710,117 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19">
+        <v>42268</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B10" s="19">
         <v>42163</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B11" s="19">
         <v>42146</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B13" s="19">
         <v>42143</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B14" s="19">
         <v>42138</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B15" s="19">
         <v>42118</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B16" s="19">
         <v>42087</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B17" s="19">
         <v>42083</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B18" s="19">
         <v>42079</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>78</v>
       </c>
     </row>
